--- a/static/mediaPOS/POS_HOAS50.xlsx
+++ b/static/mediaPOS/POS_HOAS50.xlsx
@@ -15,7 +15,152 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="0"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="48">
+  <si>
+    <t xml:space="preserve">43556201    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHECOLI GONZALEZ PAULA JESUS  </t>
+  </si>
+  <si>
+    <t>OBRA SOCIAL DE LA CONFEDERACION DE OBREROS Y EMPLEADOS MUNICIPALES ARGENTINA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22887465    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LINDNER MARTA ROSANA          </t>
+  </si>
+  <si>
+    <t>OBRA SOCIAL DEL PERSONAL DE LA INDUSTRIA DEL CAUCHO ; INSTITUTO NACIONAL DE SERVICIOS SOCIALES PARA JUBILADOS Y PENSIONADOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21706616    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">THEILL JOSE MARIA             </t>
+  </si>
+  <si>
+    <t>O.S.P. BUENOS AIRES (IOMA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17273992    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NICASTRO SILVIA BEATRIZ       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Programa Federal Incluir Salud (PFIS) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">45453562    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BARRAZA AGUSTIN ALBERTO       </t>
+  </si>
+  <si>
+    <t>OBRA SOCIAL DEL PERSONAL RURAL Y ESTIBADORES DE LA REPUBLICA ARGENTINA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">92083965    </t>
+  </si>
+  <si>
+    <t>MARTINEZ VILLALBA MARIA ANGELA</t>
+  </si>
+  <si>
+    <t>INSTITUTO NACIONAL DE SERVICIOS SOCIALES PARA JUBILADOS Y PENSIONADOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22654192    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JAEGER LORENA ELISABETH       </t>
+  </si>
+  <si>
+    <t>OBRA SOCIAL DE DOCENTES PARTICULARES ; O.S.P. BUENOS AIRES (IOMA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54594940    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIAZORIANA MARTINA            </t>
+  </si>
+  <si>
+    <t>OBRA SOCIAL UNION PERSONAL DE LA UNION DEL  PERSONAL CIVIL DE LA NACION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20235877    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">WARNHOLTZ JORGE FEDERICO      </t>
+  </si>
+  <si>
+    <t>OBRA SOCIAL DE CAPITANES DE ULTRAMAR Y OFICIALES DE LA MARINA MERCANTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16427478    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GHIORZI PABLO HUGO            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">57273676    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROIBON NICOLAS                </t>
+  </si>
+  <si>
+    <t>O.S.P. CORRIENTES (IOSCOR) ; OBRA SOCIAL DE EJECUTIVOS Y DEL PERSONAL DE DIRECCION DE EMPRESAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36206894    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CASCO LAUREANO JOSE           </t>
+  </si>
+  <si>
+    <t>OBRA SOCIAL DEL PERSONAL DE LA INDUSTRIA MADERERA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37182967    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PIZZORNO MARIA BELEN          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">29508358    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GOMEZ HUGO ROBERTO            </t>
+  </si>
+  <si>
+    <t>OBRA SOCIAL DE LA UNION OBRERA METALURGICA DE LA REPUBLICA ARGENTINA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31556222    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FERNANDEZ MARCOS MATIAS       </t>
+  </si>
+  <si>
+    <t>OBRA SOCIAL DEL PERSONAL DE BARRACAS DE LANAS, CUEROS Y ANEXOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20184875    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAZ MARCOS FLAVIO             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">39847551    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTERI NAARA MILENA           </t>
+  </si>
+  <si>
+    <t>OBRA SOCIAL DEL PERSONAL LADRILLERO</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -349,7 +494,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -360,7 +505,195 @@
     <col customWidth="1" max="2" min="2" width="35"/>
     <col customWidth="1" max="3" min="3" width="75"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>